--- a/4.Analysis/Data/raw/day1/phase_007/subj_day1_phase_007.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_007/subj_day1_phase_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">测试反应速度	</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t xml:space="preserve">140.237.133.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">phase_007_subj_14</t>
@@ -1796,7 +1799,7 @@
         <v>80</v>
       </c>
       <c r="W11" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
         <v>46</v>
@@ -1805,7 +1808,7 @@
         <v>47</v>
       </c>
       <c r="Z11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA11" t="n">
         <v>456</v>
@@ -1813,19 +1816,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1834,7 +1837,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -1876,10 +1879,10 @@
         <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W12" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
         <v>46</v>
@@ -1888,7 +1891,7 @@
         <v>47</v>
       </c>
       <c r="Z12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA12" t="n">
         <v>251</v>
@@ -1896,19 +1899,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1917,7 +1920,7 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -1959,7 +1962,7 @@
         <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W13" t="s">
         <v>45</v>
@@ -1971,7 +1974,7 @@
         <v>47</v>
       </c>
       <c r="Z13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AA13" t="n">
         <v>587</v>
@@ -1979,19 +1982,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -2000,7 +2003,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -2042,7 +2045,7 @@
         <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W14" t="s">
         <v>45</v>
@@ -2054,7 +2057,7 @@
         <v>47</v>
       </c>
       <c r="Z14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA14" t="n">
         <v>279</v>
@@ -2062,19 +2065,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -2083,7 +2086,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2125,7 +2128,7 @@
         <v>42</v>
       </c>
       <c r="V15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W15" t="s">
         <v>45</v>
@@ -2137,7 +2140,7 @@
         <v>47</v>
       </c>
       <c r="Z15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="n">
         <v>73</v>
@@ -2145,19 +2148,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -2166,7 +2169,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -2181,13 +2184,13 @@
         <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s">
         <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s">
         <v>40</v>
@@ -2205,10 +2208,10 @@
         <v>42</v>
       </c>
       <c r="U16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W16" t="s">
         <v>45</v>
@@ -2220,7 +2223,7 @@
         <v>47</v>
       </c>
       <c r="Z16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA16" t="n">
         <v>148</v>
@@ -2228,19 +2231,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -2249,7 +2252,7 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
@@ -2288,10 +2291,10 @@
         <v>42</v>
       </c>
       <c r="U17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W17" t="s">
         <v>45</v>
@@ -2303,7 +2306,7 @@
         <v>47</v>
       </c>
       <c r="Z17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA17" t="n">
         <v>648</v>
@@ -2311,19 +2314,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -2332,7 +2335,7 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2353,7 +2356,7 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P18" t="s">
         <v>40</v>
@@ -2374,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W18" t="s">
         <v>45</v>
@@ -2386,7 +2389,7 @@
         <v>47</v>
       </c>
       <c r="Z18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA18" t="n">
         <v>402</v>
